--- a/Study 2/Data Analysis/users/users.xlsx
+++ b/Study 2/Data Analysis/users/users.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dong/Dropbox/Notebook/Dissertation/Study 2/Data Analysis/users/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="6220" yWindow="3660" windowWidth="19200" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="users.csv" sheetId="1" r:id="rId1"/>
@@ -229,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,6 +254,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -384,8 +396,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="111">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -502,6 +515,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -830,16 +848,16 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="G2" sqref="G2:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +880,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>197</v>
       </c>
@@ -885,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>209</v>
       </c>
@@ -905,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>186</v>
       </c>
@@ -924,8 +942,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100</v>
       </c>
@@ -948,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>150</v>
       </c>
@@ -971,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>191</v>
       </c>
@@ -994,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>189</v>
       </c>
@@ -1010,8 +1031,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>126</v>
       </c>
@@ -1027,8 +1051,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>178</v>
       </c>
@@ -1044,11 +1071,14 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>204</v>
       </c>
@@ -1061,8 +1091,14 @@
       <c r="D11">
         <v>161</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>184</v>
       </c>
@@ -1075,8 +1111,11 @@
       <c r="D12">
         <v>161</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>196</v>
       </c>
@@ -1092,8 +1131,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>192</v>
       </c>
@@ -1109,8 +1151,11 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>170</v>
       </c>
@@ -1130,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>201</v>
       </c>
@@ -1146,8 +1191,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>206</v>
       </c>
@@ -1163,8 +1211,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>179</v>
       </c>
@@ -1180,8 +1231,14 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>193</v>
       </c>
@@ -1197,8 +1254,14 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>180</v>
       </c>
@@ -1214,8 +1277,14 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>185</v>
       </c>
@@ -1231,8 +1300,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>190</v>
       </c>
@@ -1248,8 +1320,11 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>195</v>
       </c>
@@ -1265,11 +1340,11 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>187</v>
       </c>
@@ -1285,11 +1360,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>176</v>
       </c>
@@ -1305,11 +1380,14 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>208</v>
       </c>
@@ -1323,7 +1401,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>205</v>
       </c>
@@ -1337,7 +1415,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>182</v>
       </c>
@@ -1351,7 +1429,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>183</v>
       </c>
@@ -1374,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>198</v>
       </c>
@@ -1397,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>188</v>
       </c>
@@ -1414,21 +1492,19 @@
         <v>1</v>
       </c>
       <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G31">
     <sortState ref="A2:G33">
-      <sortCondition ref="D1:D33"/>
+      <sortCondition ref="C1:C33"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>